--- a/_sprints/sprint2/burndown/Sprint 2 Burndown Chart Version 3.xlsx
+++ b/_sprints/sprint2/burndown/Sprint 2 Burndown Chart Version 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Grad School\Emerging Processes\adventra-app\_sprints\sprint2\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADB898A-22E3-424E-A47A-E1AA89A623AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE19F80-787E-438C-85FF-DBA6046832C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E7660C9-43B9-406B-90F3-620F8B00C16F}"/>
   </bookViews>
@@ -344,6 +344,15 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,7 +1688,7 @@
   <dimension ref="C6:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1782,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="3">
-        <f>42 - (42*(D11-1)/20)</f>
+        <f t="shared" ref="F11:F27" si="0">42 - (42*(D11-1)/20)</f>
         <v>33.6</v>
       </c>
     </row>
@@ -1788,7 +1797,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="3">
-        <f>42 - (42*(D12-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
     </row>
@@ -1803,7 +1812,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="3">
-        <f>42 - (42*(D13-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>29.4</v>
       </c>
     </row>
@@ -1818,7 +1827,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="3">
-        <f>42 - (42*(D14-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>27.3</v>
       </c>
     </row>
@@ -1833,7 +1842,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="3">
-        <f>42 - (42*(D15-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>25.2</v>
       </c>
       <c r="T15" t="s">
@@ -1851,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="3">
-        <f>42 - (42*(D16-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
     </row>
@@ -1866,7 +1875,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="3">
-        <f>42 - (42*(D17-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -1881,7 +1890,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="3">
-        <f>42 - (42*(D18-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>18.899999999999999</v>
       </c>
     </row>
@@ -1896,7 +1905,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="3">
-        <f>42 - (42*(D19-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>16.8</v>
       </c>
     </row>
@@ -1911,7 +1920,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="3">
-        <f>42 - (42*(D20-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>14.7</v>
       </c>
     </row>
@@ -1926,7 +1935,7 @@
         <v>15</v>
       </c>
       <c r="F21" s="3">
-        <f>42 - (42*(D21-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>12.600000000000001</v>
       </c>
     </row>
@@ -1941,7 +1950,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="3">
-        <f>42 - (42*(D22-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
     </row>
@@ -1956,7 +1965,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="3">
-        <f>42 - (42*(D23-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>8.3999999999999986</v>
       </c>
     </row>
@@ -1971,7 +1980,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="3">
-        <f>42 - (42*(D24-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>6.2999999999999972</v>
       </c>
     </row>
@@ -1982,8 +1991,11 @@
       <c r="D25" s="2">
         <v>19</v>
       </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
       <c r="F25" s="3">
-        <f>42 - (42*(D25-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>4.2000000000000028</v>
       </c>
     </row>
@@ -1994,8 +2006,11 @@
       <c r="D26" s="2">
         <v>20</v>
       </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
       <c r="F26" s="3">
-        <f>42 - (42*(D26-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>2.1000000000000014</v>
       </c>
     </row>
@@ -2006,8 +2021,11 @@
       <c r="D27" s="2">
         <v>21</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
       <c r="F27" s="3">
-        <f>42 - (42*(D27-1)/20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
